--- a/Datos-Presidentes-Completos/Primera Vuelta/1996 - Presidentes - primera vuelta.xlsx
+++ b/Datos-Presidentes-Completos/Primera Vuelta/1996 - Presidentes - primera vuelta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIVTUS\Desktop\Vinculacion\codigo\Vinculacion\Datos-Presidentes-Completos\Primera Vuelta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE544CC-582C-4CF4-B235-FEE7BD25FE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AAF436-C47E-4029-BA69-0940D23425E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8452,7 +8452,7 @@
         <v>285</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G64" s="1">
         <v>2</v>
@@ -8594,7 +8594,7 @@
         <v>285</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66" s="1">
         <v>25</v>
